--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Sema7a</t>
+  </si>
+  <si>
+    <t>Plxnc1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema7a</t>
-  </si>
-  <si>
-    <t>Plxnc1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.306257</v>
+        <v>57.6221965</v>
       </c>
       <c r="H2">
-        <v>94.612514</v>
+        <v>115.244393</v>
       </c>
       <c r="I2">
-        <v>0.5047150267666207</v>
+        <v>0.8110927351969359</v>
       </c>
       <c r="J2">
-        <v>0.4113396328056801</v>
+        <v>0.7758399834077285</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7979480000000001</v>
+        <v>0.48561</v>
       </c>
       <c r="N2">
-        <v>1.595896</v>
+        <v>0.97122</v>
       </c>
       <c r="O2">
-        <v>0.01261277618392502</v>
+        <v>0.004606472448089819</v>
       </c>
       <c r="P2">
-        <v>0.008491586253039307</v>
+        <v>0.003084030671539534</v>
       </c>
       <c r="Q2">
-        <v>37.74793316063601</v>
+        <v>27.981914842365</v>
       </c>
       <c r="R2">
-        <v>150.991732642544</v>
+        <v>111.92765936946</v>
       </c>
       <c r="S2">
-        <v>0.006365857669271113</v>
+        <v>0.003736276337530497</v>
       </c>
       <c r="T2">
-        <v>0.003492925971262949</v>
+        <v>0.002392714305036158</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.306257</v>
+        <v>57.6221965</v>
       </c>
       <c r="H3">
-        <v>94.612514</v>
+        <v>115.244393</v>
       </c>
       <c r="I3">
-        <v>0.5047150267666207</v>
+        <v>0.8110927351969359</v>
       </c>
       <c r="J3">
-        <v>0.4113396328056801</v>
+        <v>0.7758399834077285</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.028051</v>
       </c>
       <c r="O3">
-        <v>0.02649198607108916</v>
+        <v>0.0158986143881513</v>
       </c>
       <c r="P3">
-        <v>0.02675370371952843</v>
+        <v>0.01596616987095099</v>
       </c>
       <c r="Q3">
-        <v>79.28609093836901</v>
+        <v>96.57578091134049</v>
       </c>
       <c r="R3">
-        <v>475.7165456302141</v>
+        <v>579.454685468043</v>
       </c>
       <c r="S3">
-        <v>0.01337090345897071</v>
+        <v>0.012895250629927</v>
       </c>
       <c r="T3">
-        <v>0.01100485866418278</v>
+        <v>0.01238719296776359</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.306257</v>
+        <v>57.6221965</v>
       </c>
       <c r="H4">
-        <v>94.612514</v>
+        <v>115.244393</v>
       </c>
       <c r="I4">
-        <v>0.5047150267666207</v>
+        <v>0.8110927351969359</v>
       </c>
       <c r="J4">
-        <v>0.4113396328056801</v>
+        <v>0.7758399834077285</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.59504733333334</v>
+        <v>20.50090833333334</v>
       </c>
       <c r="N4">
-        <v>85.78514200000001</v>
+        <v>61.50272500000001</v>
       </c>
       <c r="O4">
-        <v>0.4519880142366111</v>
+        <v>0.1944706027435905</v>
       </c>
       <c r="P4">
-        <v>0.4564532604394176</v>
+        <v>0.1952969361043443</v>
       </c>
       <c r="Q4">
-        <v>1352.724658077831</v>
+        <v>1181.307368411821</v>
       </c>
       <c r="R4">
-        <v>8116.347948466989</v>
+        <v>7087.844210470926</v>
       </c>
       <c r="S4">
-        <v>0.2281251427036229</v>
+        <v>0.1577336930946956</v>
       </c>
       <c r="T4">
-        <v>0.1877573165421055</v>
+        <v>0.1515191716667747</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.306257</v>
+        <v>57.6221965</v>
       </c>
       <c r="H5">
-        <v>94.612514</v>
+        <v>115.244393</v>
       </c>
       <c r="I5">
-        <v>0.5047150267666207</v>
+        <v>0.8110927351969359</v>
       </c>
       <c r="J5">
-        <v>0.4113396328056801</v>
+        <v>0.7758399834077285</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.05872</v>
+        <v>0.852526</v>
       </c>
       <c r="N5">
-        <v>2.11744</v>
+        <v>1.705052</v>
       </c>
       <c r="O5">
-        <v>0.01673467243660626</v>
+        <v>0.008087019481230249</v>
       </c>
       <c r="P5">
-        <v>0.01126666424105051</v>
+        <v>0.005414254921202019</v>
       </c>
       <c r="Q5">
-        <v>50.08408041104</v>
+        <v>49.124420693359</v>
       </c>
       <c r="R5">
-        <v>200.33632164416</v>
+        <v>196.497682773436</v>
       </c>
       <c r="S5">
-        <v>0.008446240646772359</v>
+        <v>0.006559322750621949</v>
       </c>
       <c r="T5">
-        <v>0.004634425531858603</v>
+        <v>0.004200595448230588</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.306257</v>
+        <v>57.6221965</v>
       </c>
       <c r="H6">
-        <v>94.612514</v>
+        <v>115.244393</v>
       </c>
       <c r="I6">
-        <v>0.5047150267666207</v>
+        <v>0.8110927351969359</v>
       </c>
       <c r="J6">
-        <v>0.4113396328056801</v>
+        <v>0.7758399834077285</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.435936</v>
+        <v>54.85003033333334</v>
       </c>
       <c r="N6">
-        <v>1.307808</v>
+        <v>164.550091</v>
       </c>
       <c r="O6">
-        <v>0.006890628460144693</v>
+        <v>0.520304675577914</v>
       </c>
       <c r="P6">
-        <v>0.006958701841733314</v>
+        <v>0.5225155244420641</v>
       </c>
       <c r="Q6">
-        <v>20.622500451552</v>
+        <v>3160.579225898294</v>
       </c>
       <c r="R6">
-        <v>123.735002709312</v>
+        <v>18963.47535538976</v>
       </c>
       <c r="S6">
-        <v>0.003477803727700767</v>
+        <v>0.4220153424502447</v>
       </c>
       <c r="T6">
-        <v>0.002862389860382791</v>
+        <v>0.4053884358134116</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.306257</v>
+        <v>57.6221965</v>
       </c>
       <c r="H7">
-        <v>94.612514</v>
+        <v>115.244393</v>
       </c>
       <c r="I7">
-        <v>0.5047150267666207</v>
+        <v>0.8110927351969359</v>
       </c>
       <c r="J7">
-        <v>0.4113396328056801</v>
+        <v>0.7758399834077285</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.70138833333333</v>
+        <v>27.05396933333333</v>
       </c>
       <c r="N7">
-        <v>92.10416499999999</v>
+        <v>81.161908</v>
       </c>
       <c r="O7">
-        <v>0.4852819226116238</v>
+        <v>0.2566326153610241</v>
       </c>
       <c r="P7">
-        <v>0.4900760835052309</v>
+        <v>0.2577230839898992</v>
       </c>
       <c r="Q7">
-        <v>1452.367766753468</v>
+        <v>1558.909137030307</v>
       </c>
       <c r="R7">
-        <v>8714.206600520811</v>
+        <v>9353.454822181844</v>
       </c>
       <c r="S7">
-        <v>0.2449290785602829</v>
+        <v>0.2081528499339162</v>
       </c>
       <c r="T7">
-        <v>0.2015877162358875</v>
+        <v>0.199951873206512</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>10.309416</v>
       </c>
       <c r="I8">
-        <v>0.03666405180741192</v>
+        <v>0.048371940731341</v>
       </c>
       <c r="J8">
-        <v>0.044821464017762</v>
+        <v>0.06940430618939848</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7979480000000001</v>
+        <v>0.48561</v>
       </c>
       <c r="N8">
-        <v>1.595896</v>
+        <v>0.97122</v>
       </c>
       <c r="O8">
-        <v>0.01261277618392502</v>
+        <v>0.004606472448089819</v>
       </c>
       <c r="P8">
-        <v>0.008491586253039307</v>
+        <v>0.003084030671539534</v>
       </c>
       <c r="Q8">
-        <v>2.742125959456001</v>
+        <v>1.66878516792</v>
       </c>
       <c r="R8">
-        <v>16.452755756736</v>
+        <v>10.01271100752</v>
       </c>
       <c r="S8">
-        <v>0.0004624354794427181</v>
+        <v>0.000222824012239556</v>
       </c>
       <c r="T8">
-        <v>0.0003806053276943237</v>
+        <v>0.000214045009025026</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>10.309416</v>
       </c>
       <c r="I9">
-        <v>0.03666405180741192</v>
+        <v>0.048371940731341</v>
       </c>
       <c r="J9">
-        <v>0.044821464017762</v>
+        <v>0.06940430618939848</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>5.028051</v>
       </c>
       <c r="O9">
-        <v>0.02649198607108916</v>
+        <v>0.0158986143881513</v>
       </c>
       <c r="P9">
-        <v>0.02675370371952843</v>
+        <v>0.01596616987095099</v>
       </c>
       <c r="Q9">
-        <v>5.759585492024001</v>
+        <v>5.759585492024</v>
       </c>
       <c r="R9">
-        <v>51.83626942821601</v>
+        <v>51.836269428216</v>
       </c>
       <c r="S9">
-        <v>0.000971303549791648</v>
+        <v>0.0007690468328941002</v>
       </c>
       <c r="T9">
-        <v>0.001199140168606709</v>
+        <v>0.001108120942395432</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>10.309416</v>
       </c>
       <c r="I10">
-        <v>0.03666405180741192</v>
+        <v>0.048371940731341</v>
       </c>
       <c r="J10">
-        <v>0.044821464017762</v>
+        <v>0.06940430618939848</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.59504733333334</v>
+        <v>20.50090833333334</v>
       </c>
       <c r="N10">
-        <v>85.78514200000001</v>
+        <v>61.50272500000001</v>
       </c>
       <c r="O10">
-        <v>0.4519880142366111</v>
+        <v>0.1944706027435905</v>
       </c>
       <c r="P10">
-        <v>0.4564532604394176</v>
+        <v>0.1952969361043443</v>
       </c>
       <c r="Q10">
-        <v>98.26607949967469</v>
+        <v>70.45079746206667</v>
       </c>
       <c r="R10">
-        <v>884.3947154970722</v>
+        <v>634.0571771586001</v>
       </c>
       <c r="S10">
-        <v>0.01657171197030034</v>
+        <v>0.009406920469901121</v>
       </c>
       <c r="T10">
-        <v>0.0204589033885755</v>
+        <v>0.01355444835123731</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>10.309416</v>
       </c>
       <c r="I11">
-        <v>0.03666405180741192</v>
+        <v>0.048371940731341</v>
       </c>
       <c r="J11">
-        <v>0.044821464017762</v>
+        <v>0.06940430618939848</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.05872</v>
+        <v>0.852526</v>
       </c>
       <c r="N11">
-        <v>2.11744</v>
+        <v>1.705052</v>
       </c>
       <c r="O11">
-        <v>0.01673467243660626</v>
+        <v>0.008087019481230249</v>
       </c>
       <c r="P11">
-        <v>0.01126666424105051</v>
+        <v>0.005414254921202019</v>
       </c>
       <c r="Q11">
-        <v>3.63826163584</v>
+        <v>2.929681728272</v>
       </c>
       <c r="R11">
-        <v>21.82956981504</v>
+        <v>17.578090369632</v>
       </c>
       <c r="S11">
-        <v>0.0006135608971958002</v>
+        <v>0.0003911848270392696</v>
       </c>
       <c r="T11">
-        <v>0.0005049883858804512</v>
+        <v>0.0003757726063385625</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>10.309416</v>
       </c>
       <c r="I12">
-        <v>0.03666405180741192</v>
+        <v>0.048371940731341</v>
       </c>
       <c r="J12">
-        <v>0.044821464017762</v>
+        <v>0.06940430618939848</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.435936</v>
+        <v>54.85003033333334</v>
       </c>
       <c r="N12">
-        <v>1.307808</v>
+        <v>164.550091</v>
       </c>
       <c r="O12">
-        <v>0.006890628460144693</v>
+        <v>0.520304675577914</v>
       </c>
       <c r="P12">
-        <v>0.006958701841733314</v>
+        <v>0.5225155244420641</v>
       </c>
       <c r="Q12">
-        <v>1.498081857792</v>
+        <v>188.4905934396507</v>
       </c>
       <c r="R12">
-        <v>13.482736720128</v>
+        <v>1696.415340956856</v>
       </c>
       <c r="S12">
-        <v>0.000252638358848372</v>
+        <v>0.02516814692929446</v>
       </c>
       <c r="T12">
-        <v>0.0003118992042095838</v>
+        <v>0.03626482744709114</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>10.309416</v>
       </c>
       <c r="I13">
-        <v>0.03666405180741192</v>
+        <v>0.048371940731341</v>
       </c>
       <c r="J13">
-        <v>0.044821464017762</v>
+        <v>0.06940430618939848</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>30.70138833333333</v>
+        <v>27.05396933333333</v>
       </c>
       <c r="N13">
-        <v>92.10416499999999</v>
+        <v>81.161908</v>
       </c>
       <c r="O13">
-        <v>0.4852819226116238</v>
+        <v>0.2566326153610241</v>
       </c>
       <c r="P13">
-        <v>0.4900760835052309</v>
+        <v>0.2577230839898992</v>
       </c>
       <c r="Q13">
-        <v>105.5044613686267</v>
+        <v>92.97020810285866</v>
       </c>
       <c r="R13">
-        <v>949.54015231764</v>
+        <v>836.731872925728</v>
       </c>
       <c r="S13">
-        <v>0.01779240155183304</v>
+        <v>0.01241381765997249</v>
       </c>
       <c r="T13">
-        <v>0.02196592754279543</v>
+        <v>0.01788709183331103</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,19 +1284,19 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1023033333333333</v>
+        <v>6.9643785</v>
       </c>
       <c r="H14">
-        <v>0.30691</v>
+        <v>13.928757</v>
       </c>
       <c r="I14">
-        <v>0.001091484148104295</v>
+        <v>0.09803091776468004</v>
       </c>
       <c r="J14">
-        <v>0.001334329269639651</v>
+        <v>0.09377017240023366</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7979480000000001</v>
+        <v>0.48561</v>
       </c>
       <c r="N14">
-        <v>1.595896</v>
+        <v>0.97122</v>
       </c>
       <c r="O14">
-        <v>0.01261277618392502</v>
+        <v>0.004606472448089819</v>
       </c>
       <c r="P14">
-        <v>0.008491586253039307</v>
+        <v>0.003084030671539534</v>
       </c>
       <c r="Q14">
-        <v>0.08163274022666668</v>
+        <v>3.381971843385</v>
       </c>
       <c r="R14">
-        <v>0.4897964413600001</v>
+        <v>13.52788737354</v>
       </c>
       <c r="S14">
-        <v>1.376664526834154E-05</v>
+        <v>0.0004515767217439574</v>
       </c>
       <c r="T14">
-        <v>1.133057208310004E-05</v>
+        <v>0.0002891900877578705</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,19 +1346,19 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1023033333333333</v>
+        <v>6.9643785</v>
       </c>
       <c r="H15">
-        <v>0.30691</v>
+        <v>13.928757</v>
       </c>
       <c r="I15">
-        <v>0.001091484148104295</v>
+        <v>0.09803091776468004</v>
       </c>
       <c r="J15">
-        <v>0.001334329269639651</v>
+        <v>0.09377017240023366</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>5.028051</v>
       </c>
       <c r="O15">
-        <v>0.02649198607108916</v>
+        <v>0.0158986143881513</v>
       </c>
       <c r="P15">
-        <v>0.02675370371952843</v>
+        <v>0.01596616987095099</v>
       </c>
       <c r="Q15">
-        <v>0.1714621258233334</v>
+        <v>11.6724167604345</v>
       </c>
       <c r="R15">
-        <v>1.54315913241</v>
+        <v>70.03450056260699</v>
       </c>
       <c r="S15">
-        <v>2.891558284839361E-05</v>
+        <v>0.001558555759657219</v>
       </c>
       <c r="T15">
-        <v>3.569824994423399E-05</v>
+        <v>0.001497150501370491</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1023033333333333</v>
+        <v>6.9643785</v>
       </c>
       <c r="H16">
-        <v>0.30691</v>
+        <v>13.928757</v>
       </c>
       <c r="I16">
-        <v>0.001091484148104295</v>
+        <v>0.09803091776468004</v>
       </c>
       <c r="J16">
-        <v>0.001334329269639651</v>
+        <v>0.09377017240023366</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>28.59504733333334</v>
+        <v>20.50090833333334</v>
       </c>
       <c r="N16">
-        <v>85.78514200000001</v>
+        <v>61.50272500000001</v>
       </c>
       <c r="O16">
-        <v>0.4519880142366111</v>
+        <v>0.1944706027435905</v>
       </c>
       <c r="P16">
-        <v>0.4564532604394176</v>
+        <v>0.1952969361043443</v>
       </c>
       <c r="Q16">
-        <v>2.925368659024445</v>
+        <v>142.7760852271375</v>
       </c>
       <c r="R16">
-        <v>26.32831793122</v>
+        <v>856.6565113628251</v>
       </c>
       <c r="S16">
-        <v>0.0004933377526723995</v>
+        <v>0.01906413166520468</v>
       </c>
       <c r="T16">
-        <v>0.0006090589456267656</v>
+        <v>0.01831302736774179</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1023033333333333</v>
+        <v>6.9643785</v>
       </c>
       <c r="H17">
-        <v>0.30691</v>
+        <v>13.928757</v>
       </c>
       <c r="I17">
-        <v>0.001091484148104295</v>
+        <v>0.09803091776468004</v>
       </c>
       <c r="J17">
-        <v>0.001334329269639651</v>
+        <v>0.09377017240023366</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.05872</v>
+        <v>0.852526</v>
       </c>
       <c r="N17">
-        <v>2.11744</v>
+        <v>1.705052</v>
       </c>
       <c r="O17">
-        <v>0.01673467243660626</v>
+        <v>0.008087019481230249</v>
       </c>
       <c r="P17">
-        <v>0.01126666424105051</v>
+        <v>0.005414254921202019</v>
       </c>
       <c r="Q17">
-        <v>0.1083105850666667</v>
+        <v>5.937313745091</v>
       </c>
       <c r="R17">
-        <v>0.6498635104</v>
+        <v>23.749254980364</v>
       </c>
       <c r="S17">
-        <v>1.826562968827362E-05</v>
+        <v>0.000792777941725848</v>
       </c>
       <c r="T17">
-        <v>1.50334398680361E-05</v>
+        <v>0.0005076956173799269</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1023033333333333</v>
+        <v>6.9643785</v>
       </c>
       <c r="H18">
-        <v>0.30691</v>
+        <v>13.928757</v>
       </c>
       <c r="I18">
-        <v>0.001091484148104295</v>
+        <v>0.09803091776468004</v>
       </c>
       <c r="J18">
-        <v>0.001334329269639651</v>
+        <v>0.09377017240023366</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.435936</v>
+        <v>54.85003033333334</v>
       </c>
       <c r="N18">
-        <v>1.307808</v>
+        <v>164.550091</v>
       </c>
       <c r="O18">
-        <v>0.006890628460144693</v>
+        <v>0.520304675577914</v>
       </c>
       <c r="P18">
-        <v>0.006958701841733314</v>
+        <v>0.5225155244420641</v>
       </c>
       <c r="Q18">
-        <v>0.04459770592000001</v>
+        <v>381.9963719778145</v>
       </c>
       <c r="R18">
-        <v>0.4013793532800001</v>
+        <v>2291.978231866887</v>
       </c>
       <c r="S18">
-        <v>7.521011734724242E-06</v>
+        <v>0.05100594486415701</v>
       </c>
       <c r="T18">
-        <v>9.285199546120108E-06</v>
+        <v>0.04899637080873086</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1023033333333333</v>
+        <v>6.9643785</v>
       </c>
       <c r="H19">
-        <v>0.30691</v>
+        <v>13.928757</v>
       </c>
       <c r="I19">
-        <v>0.001091484148104295</v>
+        <v>0.09803091776468004</v>
       </c>
       <c r="J19">
-        <v>0.001334329269639651</v>
+        <v>0.09377017240023366</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>30.70138833333333</v>
+        <v>27.05396933333333</v>
       </c>
       <c r="N19">
-        <v>92.10416499999999</v>
+        <v>81.161908</v>
       </c>
       <c r="O19">
-        <v>0.4852819226116238</v>
+        <v>0.2566326153610241</v>
       </c>
       <c r="P19">
-        <v>0.4900760835052309</v>
+        <v>0.2577230839898992</v>
       </c>
       <c r="Q19">
-        <v>3.140854364461111</v>
+        <v>188.414082364726</v>
       </c>
       <c r="R19">
-        <v>28.26768928015</v>
+        <v>1130.484494188356</v>
       </c>
       <c r="S19">
-        <v>0.0005296775258921628</v>
+        <v>0.02515793081219131</v>
       </c>
       <c r="T19">
-        <v>0.0006539228625713954</v>
+        <v>0.02416673801725275</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.8689935</v>
+        <v>2.970854</v>
       </c>
       <c r="H20">
-        <v>7.737987</v>
+        <v>8.912561999999999</v>
       </c>
       <c r="I20">
-        <v>0.04127866548208161</v>
+        <v>0.04181787996802165</v>
       </c>
       <c r="J20">
-        <v>0.03364185768528596</v>
+        <v>0.06000050652529664</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.7979480000000001</v>
+        <v>0.48561</v>
       </c>
       <c r="N20">
-        <v>1.595896</v>
+        <v>0.97122</v>
       </c>
       <c r="O20">
-        <v>0.01261277618392502</v>
+        <v>0.004606472448089819</v>
       </c>
       <c r="P20">
-        <v>0.008491586253039307</v>
+        <v>0.003084030671539534</v>
       </c>
       <c r="Q20">
-        <v>3.087255625338</v>
+        <v>1.44267641094</v>
       </c>
       <c r="R20">
-        <v>12.349022501352</v>
+        <v>8.656058465639999</v>
       </c>
       <c r="S20">
-        <v>0.0005206385688966067</v>
+        <v>0.0001926329119102189</v>
       </c>
       <c r="T20">
-        <v>0.000285672736247079</v>
+        <v>0.0001850434024319228</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.8689935</v>
+        <v>2.970854</v>
       </c>
       <c r="H21">
-        <v>7.737987</v>
+        <v>8.912561999999999</v>
       </c>
       <c r="I21">
-        <v>0.04127866548208161</v>
+        <v>0.04181787996802165</v>
       </c>
       <c r="J21">
-        <v>0.03364185768528596</v>
+        <v>0.06000050652529664</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>5.028051</v>
       </c>
       <c r="O21">
-        <v>0.02649198607108916</v>
+        <v>0.0158986143881513</v>
       </c>
       <c r="P21">
-        <v>0.02675370371952843</v>
+        <v>0.01596616987095099</v>
       </c>
       <c r="Q21">
-        <v>6.484498878889501</v>
+        <v>4.979201808517999</v>
       </c>
       <c r="R21">
-        <v>38.90699327333701</v>
+        <v>44.81281627666199</v>
       </c>
       <c r="S21">
-        <v>0.001093553830984455</v>
+        <v>0.0006648463481415733</v>
       </c>
       <c r="T21">
-        <v>0.0009000442930866811</v>
+        <v>0.0009579782795259898</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.8689935</v>
+        <v>2.970854</v>
       </c>
       <c r="H22">
-        <v>7.737987</v>
+        <v>8.912561999999999</v>
       </c>
       <c r="I22">
-        <v>0.04127866548208161</v>
+        <v>0.04181787996802165</v>
       </c>
       <c r="J22">
-        <v>0.03364185768528596</v>
+        <v>0.06000050652529664</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>28.59504733333334</v>
+        <v>20.50090833333334</v>
       </c>
       <c r="N22">
-        <v>85.78514200000001</v>
+        <v>61.50272500000001</v>
       </c>
       <c r="O22">
-        <v>0.4519880142366111</v>
+        <v>0.1944706027435905</v>
       </c>
       <c r="P22">
-        <v>0.4564532604394176</v>
+        <v>0.1952969361043443</v>
       </c>
       <c r="Q22">
-        <v>110.634052264859</v>
+        <v>60.90520552571667</v>
       </c>
       <c r="R22">
-        <v>663.804313589154</v>
+        <v>548.1468497314501</v>
       </c>
       <c r="S22">
-        <v>0.01865746204158341</v>
+        <v>0.00813234832284029</v>
       </c>
       <c r="T22">
-        <v>0.01535593562768766</v>
+        <v>0.01171791508909915</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.8689935</v>
+        <v>2.970854</v>
       </c>
       <c r="H23">
-        <v>7.737987</v>
+        <v>8.912561999999999</v>
       </c>
       <c r="I23">
-        <v>0.04127866548208161</v>
+        <v>0.04181787996802165</v>
       </c>
       <c r="J23">
-        <v>0.03364185768528596</v>
+        <v>0.06000050652529664</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.05872</v>
+        <v>0.852526</v>
       </c>
       <c r="N23">
-        <v>2.11744</v>
+        <v>1.705052</v>
       </c>
       <c r="O23">
-        <v>0.01673467243660626</v>
+        <v>0.008087019481230249</v>
       </c>
       <c r="P23">
-        <v>0.01126666424105051</v>
+        <v>0.005414254921202019</v>
       </c>
       <c r="Q23">
-        <v>4.09618079832</v>
+        <v>2.532730277204</v>
       </c>
       <c r="R23">
-        <v>16.38472319328</v>
+        <v>15.196381663224</v>
       </c>
       <c r="S23">
-        <v>0.0006907849454628814</v>
+        <v>0.0003381820099651393</v>
       </c>
       <c r="T23">
-        <v>0.0003790315149853217</v>
+        <v>0.0003248580377292012</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.8689935</v>
+        <v>2.970854</v>
       </c>
       <c r="H24">
-        <v>7.737987</v>
+        <v>8.912561999999999</v>
       </c>
       <c r="I24">
-        <v>0.04127866548208161</v>
+        <v>0.04181787996802165</v>
       </c>
       <c r="J24">
-        <v>0.03364185768528596</v>
+        <v>0.06000050652529664</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.435936</v>
+        <v>54.85003033333334</v>
       </c>
       <c r="N24">
-        <v>1.307808</v>
+        <v>164.550091</v>
       </c>
       <c r="O24">
-        <v>0.006890628460144693</v>
+        <v>0.520304675577914</v>
       </c>
       <c r="P24">
-        <v>0.006958701841733314</v>
+        <v>0.5225155244420641</v>
       </c>
       <c r="Q24">
-        <v>1.686633550416</v>
+        <v>162.9514320159047</v>
       </c>
       <c r="R24">
-        <v>10.119801302496</v>
+        <v>1466.562888143142</v>
       </c>
       <c r="S24">
-        <v>0.0002844359471676239</v>
+        <v>0.02175803847011766</v>
       </c>
       <c r="T24">
-        <v>0.0002341036570339295</v>
+        <v>0.03135119613385486</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.8689935</v>
+        <v>2.970854</v>
       </c>
       <c r="H25">
-        <v>7.737987</v>
+        <v>8.912561999999999</v>
       </c>
       <c r="I25">
-        <v>0.04127866548208161</v>
+        <v>0.04181787996802165</v>
       </c>
       <c r="J25">
-        <v>0.03364185768528596</v>
+        <v>0.06000050652529664</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>30.70138833333333</v>
+        <v>27.05396933333333</v>
       </c>
       <c r="N25">
-        <v>92.10416499999999</v>
+        <v>81.161908</v>
       </c>
       <c r="O25">
-        <v>0.4852819226116238</v>
+        <v>0.2566326153610241</v>
       </c>
       <c r="P25">
-        <v>0.4900760835052309</v>
+        <v>0.2577230839898992</v>
       </c>
       <c r="Q25">
-        <v>118.7834719026425</v>
+        <v>80.37339300981066</v>
       </c>
       <c r="R25">
-        <v>712.700831415855</v>
+        <v>723.3605370882959</v>
       </c>
       <c r="S25">
-        <v>0.02003179014798664</v>
+        <v>0.01073183190504677</v>
       </c>
       <c r="T25">
-        <v>0.0164870698562453</v>
+        <v>0.01546351558265552</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>38.74561499999999</v>
+        <v>0.04877266666666667</v>
       </c>
       <c r="H26">
-        <v>116.236845</v>
+        <v>0.146318</v>
       </c>
       <c r="I26">
-        <v>0.4133807101207389</v>
+        <v>0.0006865263390213715</v>
       </c>
       <c r="J26">
-        <v>0.5053540923856092</v>
+        <v>0.0009850314773426939</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.7979480000000001</v>
+        <v>0.48561</v>
       </c>
       <c r="N26">
-        <v>1.595896</v>
+        <v>0.97122</v>
       </c>
       <c r="O26">
-        <v>0.01261277618392502</v>
+        <v>0.004606472448089819</v>
       </c>
       <c r="P26">
-        <v>0.008491586253039307</v>
+        <v>0.003084030671539534</v>
       </c>
       <c r="Q26">
-        <v>30.91698599802</v>
+        <v>0.02368449466</v>
       </c>
       <c r="R26">
-        <v>185.50191598812</v>
+        <v>0.14210696796</v>
       </c>
       <c r="S26">
-        <v>0.005213878375504868</v>
+        <v>3.162464665589918E-06</v>
       </c>
       <c r="T26">
-        <v>0.004291257863818796</v>
+        <v>3.037867288556768E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>38.74561499999999</v>
+        <v>0.04877266666666667</v>
       </c>
       <c r="H27">
-        <v>116.236845</v>
+        <v>0.146318</v>
       </c>
       <c r="I27">
-        <v>0.4133807101207389</v>
+        <v>0.0006865263390213715</v>
       </c>
       <c r="J27">
-        <v>0.5053540923856092</v>
+        <v>0.0009850314773426939</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>5.028051</v>
       </c>
       <c r="O27">
-        <v>0.02649198607108916</v>
+        <v>0.0158986143881513</v>
       </c>
       <c r="P27">
-        <v>0.02675370371952843</v>
+        <v>0.01596616987095099</v>
       </c>
       <c r="Q27">
-        <v>64.938309415455</v>
+        <v>0.08174381846866666</v>
       </c>
       <c r="R27">
-        <v>584.444784739095</v>
+        <v>0.735694366218</v>
       </c>
       <c r="S27">
-        <v>0.01095127601457556</v>
+        <v>1.091481753141002E-05</v>
       </c>
       <c r="T27">
-        <v>0.01352009366113579</v>
+        <v>1.572717989548727E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>38.74561499999999</v>
+        <v>0.04877266666666667</v>
       </c>
       <c r="H28">
-        <v>116.236845</v>
+        <v>0.146318</v>
       </c>
       <c r="I28">
-        <v>0.4133807101207389</v>
+        <v>0.0006865263390213715</v>
       </c>
       <c r="J28">
-        <v>0.5053540923856092</v>
+        <v>0.0009850314773426939</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>28.59504733333334</v>
+        <v>20.50090833333334</v>
       </c>
       <c r="N28">
-        <v>85.78514200000001</v>
+        <v>61.50272500000001</v>
       </c>
       <c r="O28">
-        <v>0.4519880142366111</v>
+        <v>0.1944706027435905</v>
       </c>
       <c r="P28">
-        <v>0.4564532604394176</v>
+        <v>0.1952969361043443</v>
       </c>
       <c r="Q28">
-        <v>1107.93269488411</v>
+        <v>0.9998839685055556</v>
       </c>
       <c r="R28">
-        <v>9971.394253956991</v>
+        <v>8.99895571655</v>
       </c>
       <c r="S28">
-        <v>0.1868431262911929</v>
+        <v>0.0001335091909488367</v>
       </c>
       <c r="T28">
-        <v>0.230670523145814</v>
+        <v>0.000192373629491364</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>38.74561499999999</v>
+        <v>0.04877266666666667</v>
       </c>
       <c r="H29">
-        <v>116.236845</v>
+        <v>0.146318</v>
       </c>
       <c r="I29">
-        <v>0.4133807101207389</v>
+        <v>0.0006865263390213715</v>
       </c>
       <c r="J29">
-        <v>0.5053540923856092</v>
+        <v>0.0009850314773426939</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.05872</v>
+        <v>0.852526</v>
       </c>
       <c r="N29">
-        <v>2.11744</v>
+        <v>1.705052</v>
       </c>
       <c r="O29">
-        <v>0.01673467243660626</v>
+        <v>0.008087019481230249</v>
       </c>
       <c r="P29">
-        <v>0.01126666424105051</v>
+        <v>0.005414254921202019</v>
       </c>
       <c r="Q29">
-        <v>41.02075751279999</v>
+        <v>0.04157996642266667</v>
       </c>
       <c r="R29">
-        <v>246.1245450768</v>
+        <v>0.249479798536</v>
       </c>
       <c r="S29">
-        <v>0.006917790775482252</v>
+        <v>5.551951878043514E-06</v>
       </c>
       <c r="T29">
-        <v>0.005693654881749479</v>
+        <v>5.333211523741576E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>38.74561499999999</v>
+        <v>0.04877266666666667</v>
       </c>
       <c r="H30">
-        <v>116.236845</v>
+        <v>0.146318</v>
       </c>
       <c r="I30">
-        <v>0.4133807101207389</v>
+        <v>0.0006865263390213715</v>
       </c>
       <c r="J30">
-        <v>0.5053540923856092</v>
+        <v>0.0009850314773426939</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.435936</v>
+        <v>54.85003033333334</v>
       </c>
       <c r="N30">
-        <v>1.307808</v>
+        <v>164.550091</v>
       </c>
       <c r="O30">
-        <v>0.006890628460144693</v>
+        <v>0.520304675577914</v>
       </c>
       <c r="P30">
-        <v>0.006958701841733314</v>
+        <v>0.5225155244420641</v>
       </c>
       <c r="Q30">
-        <v>16.89060842064</v>
+        <v>2.675182246104222</v>
       </c>
       <c r="R30">
-        <v>152.01547578576</v>
+        <v>24.076640214938</v>
       </c>
       <c r="S30">
-        <v>0.002848452886032787</v>
+        <v>0.0003572028641002078</v>
       </c>
       <c r="T30">
-        <v>0.003516608453411206</v>
+        <v>0.0005146942389756588</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>38.74561499999999</v>
+        <v>0.04877266666666667</v>
       </c>
       <c r="H31">
-        <v>116.236845</v>
+        <v>0.146318</v>
       </c>
       <c r="I31">
-        <v>0.4133807101207389</v>
+        <v>0.0006865263390213715</v>
       </c>
       <c r="J31">
-        <v>0.5053540923856092</v>
+        <v>0.0009850314773426939</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>30.70138833333333</v>
+        <v>27.05396933333333</v>
       </c>
       <c r="N31">
-        <v>92.10416499999999</v>
+        <v>81.161908</v>
       </c>
       <c r="O31">
-        <v>0.4852819226116238</v>
+        <v>0.2566326153610241</v>
       </c>
       <c r="P31">
-        <v>0.4900760835052309</v>
+        <v>0.2577230839898992</v>
       </c>
       <c r="Q31">
-        <v>1189.544172328825</v>
+        <v>1.319494228304889</v>
       </c>
       <c r="R31">
-        <v>10705.89755095942</v>
+        <v>11.875448054744</v>
       </c>
       <c r="S31">
-        <v>0.2006061857779505</v>
+        <v>0.0001761850498972836</v>
       </c>
       <c r="T31">
-        <v>0.24766195437968</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.269007</v>
-      </c>
-      <c r="H32">
-        <v>0.807021</v>
-      </c>
-      <c r="I32">
-        <v>0.002870061675042444</v>
-      </c>
-      <c r="J32">
-        <v>0.003508623836023137</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0.7979480000000001</v>
-      </c>
-      <c r="N32">
-        <v>1.595896</v>
-      </c>
-      <c r="O32">
-        <v>0.01261277618392502</v>
-      </c>
-      <c r="P32">
-        <v>0.008491586253039307</v>
-      </c>
-      <c r="Q32">
-        <v>0.214653597636</v>
-      </c>
-      <c r="R32">
-        <v>1.287921585816</v>
-      </c>
-      <c r="S32">
-        <v>3.619944554137128E-05</v>
-      </c>
-      <c r="T32">
-        <v>2.979378193306011E-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.269007</v>
-      </c>
-      <c r="H33">
-        <v>0.807021</v>
-      </c>
-      <c r="I33">
-        <v>0.002870061675042444</v>
-      </c>
-      <c r="J33">
-        <v>0.003508623836023137</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1.676017</v>
-      </c>
-      <c r="N33">
-        <v>5.028051</v>
-      </c>
-      <c r="O33">
-        <v>0.02649198607108916</v>
-      </c>
-      <c r="P33">
-        <v>0.02675370371952843</v>
-      </c>
-      <c r="Q33">
-        <v>0.450860305119</v>
-      </c>
-      <c r="R33">
-        <v>4.057742746071001</v>
-      </c>
-      <c r="S33">
-        <v>7.603363391839124E-05</v>
-      </c>
-      <c r="T33">
-        <v>9.386868257223829E-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.269007</v>
-      </c>
-      <c r="H34">
-        <v>0.807021</v>
-      </c>
-      <c r="I34">
-        <v>0.002870061675042444</v>
-      </c>
-      <c r="J34">
-        <v>0.003508623836023137</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>28.59504733333334</v>
-      </c>
-      <c r="N34">
-        <v>85.78514200000001</v>
-      </c>
-      <c r="O34">
-        <v>0.4519880142366111</v>
-      </c>
-      <c r="P34">
-        <v>0.4564532604394176</v>
-      </c>
-      <c r="Q34">
-        <v>7.692267897998001</v>
-      </c>
-      <c r="R34">
-        <v>69.230411081982</v>
-      </c>
-      <c r="S34">
-        <v>0.001297233477239036</v>
-      </c>
-      <c r="T34">
-        <v>0.001601522789608217</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.269007</v>
-      </c>
-      <c r="H35">
-        <v>0.807021</v>
-      </c>
-      <c r="I35">
-        <v>0.002870061675042444</v>
-      </c>
-      <c r="J35">
-        <v>0.003508623836023137</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1.05872</v>
-      </c>
-      <c r="N35">
-        <v>2.11744</v>
-      </c>
-      <c r="O35">
-        <v>0.01673467243660626</v>
-      </c>
-      <c r="P35">
-        <v>0.01126666424105051</v>
-      </c>
-      <c r="Q35">
-        <v>0.28480309104</v>
-      </c>
-      <c r="R35">
-        <v>1.70881854624</v>
-      </c>
-      <c r="S35">
-        <v>4.802954200469277E-05</v>
-      </c>
-      <c r="T35">
-        <v>3.953048670861935E-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.269007</v>
-      </c>
-      <c r="H36">
-        <v>0.807021</v>
-      </c>
-      <c r="I36">
-        <v>0.002870061675042444</v>
-      </c>
-      <c r="J36">
-        <v>0.003508623836023137</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>0.435936</v>
-      </c>
-      <c r="N36">
-        <v>1.307808</v>
-      </c>
-      <c r="O36">
-        <v>0.006890628460144693</v>
-      </c>
-      <c r="P36">
-        <v>0.006958701841733314</v>
-      </c>
-      <c r="Q36">
-        <v>0.117269835552</v>
-      </c>
-      <c r="R36">
-        <v>1.055428519968</v>
-      </c>
-      <c r="S36">
-        <v>1.977652866041801E-05</v>
-      </c>
-      <c r="T36">
-        <v>2.441546714968361E-05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.269007</v>
-      </c>
-      <c r="H37">
-        <v>0.807021</v>
-      </c>
-      <c r="I37">
-        <v>0.002870061675042444</v>
-      </c>
-      <c r="J37">
-        <v>0.003508623836023137</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>30.70138833333333</v>
-      </c>
-      <c r="N37">
-        <v>92.10416499999999</v>
-      </c>
-      <c r="O37">
-        <v>0.4852819226116238</v>
-      </c>
-      <c r="P37">
-        <v>0.4900760835052309</v>
-      </c>
-      <c r="Q37">
-        <v>8.258888371385</v>
-      </c>
-      <c r="R37">
-        <v>74.329995342465</v>
-      </c>
-      <c r="S37">
-        <v>0.001392789047678534</v>
-      </c>
-      <c r="T37">
-        <v>0.001719492628051318</v>
+        <v>0.0002538653501678856</v>
       </c>
     </row>
   </sheetData>
